--- a/src/main/resources/pdf/en_template.xlsx
+++ b/src/main/resources/pdf/en_template.xlsx
@@ -29,7 +29,7 @@
     <definedName name="Configuracióndeempresa_Sufax">INDEX(Configuracióndeempresa[VALOR],MATCH("Facsímile",Configuracióndeempresa[[DATOS SOBRE SU EMPRESA ]],0))</definedName>
     <definedName name="Configuracióndeempresa_Sunombre">INDEX(Configuracióndeempresa[VALOR],MATCH("Su nombre",Configuracióndeempresa[[DATOS SOBRE SU EMPRESA ]],0))</definedName>
     <definedName name="Configuracióndeempresa_Teléfono">INDEX(Configuracióndeempresa[VALOR],MATCH("Teléfono",Configuracióndeempresa[[DATOS SOBRE SU EMPRESA ]],0))</definedName>
-    <definedName name="Totalfactura">Factura!$E$23</definedName>
+    <definedName name="Totalfactura">Factura!$E$24</definedName>
     <definedName name="Visualizacióndelnúmerodefactura">Factura!$C$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Su nombre</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>nid</t>
+  </si>
+  <si>
+    <t>23455 Rental Street</t>
+  </si>
+  <si>
+    <t>Orange House, ES 12000</t>
+  </si>
+  <si>
+    <t>B-99999999</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +595,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -610,8 +625,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,16 +948,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>927674</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>299024</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19144</xdr:rowOff>
+      <xdr:rowOff>28669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>644561</xdr:colOff>
+      <xdr:colOff>1301786</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -965,7 +980,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5890199" y="362044"/>
+          <a:off x="5928299" y="371569"/>
           <a:ext cx="1002762" cy="428531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1278,7 +1293,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Detallesfactura" displayName="Detallesfactura" ref="B15:E20" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Detallesfactura" displayName="Detallesfactura" ref="B16:E21" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <tableColumns count="4">
     <tableColumn id="1" name="QUANTITY" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="2" name="DETAILS" dataDxfId="7" totalsRowDxfId="6"/>
@@ -1542,10 +1557,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1571,14 +1586,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1586,124 +1601,129 @@
     <row r="4" spans="1:6" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="45" t="s">
         <v>56</v>
       </c>
+      <c r="D6" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="41"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="52"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="B9" s="41"/>
       <c r="C9" s="44"/>
-      <c r="D9" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="52"/>
+      <c r="D9" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="E10" s="35">
+      <c r="C11" s="44"/>
+      <c r="E11" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="E11" s="35">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="E12" s="35">
         <f>Configuracióndeempresa_DirecciónLínea4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="22" t="s">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E18" s="33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="2:5" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="24"/>
@@ -1717,59 +1737,56 @@
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
     </row>
-    <row r="21" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>40</v>
-      </c>
+    <row r="21" spans="2:5" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="27"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E23" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="49" t="str">
+    <row r="24" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="50" t="str">
         <f>REPT(Configuracióndeempresa_Abreviaturademoneda,LEN(Configuracióndeempresa_Abreviaturademoneda)&gt;0) &amp; " TOTAL"</f>
         <v>EUR TOTAL</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E24" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="2:5" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31" t="s">
+    <row r="25" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="2:5" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15" t="str">
-        <f>IFERROR(Configuracióndeempresa_Sunombre,"")</f>
-        <v>EasyRent S.L.</v>
       </c>
     </row>
     <row r="28" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1777,8 +1794,8 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="15" t="str">
-        <f>IFERROR("Phone: " &amp; Configuracióndeempresa_Teléfono,"")</f>
-        <v>Phone: 964234875</v>
+        <f>IFERROR(Configuracióndeempresa_Sunombre,"")</f>
+        <v>EasyRent S.L.</v>
       </c>
     </row>
     <row r="29" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1786,8 +1803,8 @@
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="15" t="str">
-        <f>IFERROR("Facsimile: " &amp; Configuracióndeempresa_Sufax,"")</f>
-        <v/>
+        <f>IFERROR("Phone: " &amp; Configuracióndeempresa_Teléfono,"")</f>
+        <v>Phone: 964234875</v>
       </c>
     </row>
     <row r="30" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1795,53 +1812,64 @@
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="15" t="str">
-        <f>IFERROR(Configuracióndeempresa_DirecciónURL,"")</f>
-        <v>www.easyrent.com</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>IFERROR("Facsimile: " &amp; Configuracióndeempresa_Sufax,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="15" t="str">
-        <f>IFERROR(Configuracióndeempresa_Correoelectrónico,"")</f>
-        <v>info@easyrent.com</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <f>IFERROR(Configuracióndeempresa_DirecciónURL,"")</f>
+        <v>www.easyrent.com</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="15" t="str">
+        <f>IFERROR(Configuracióndeempresa_Correoelectrónico,"")</f>
+        <v>info@easyrent.com</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="str">
         <f>IFERROR(IF(LEN(Client_PO),"Contract/PO: " &amp; Client_PO,""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="2:5" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-    </row>
-    <row r="35" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="2:5" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+    </row>
     <row r="36" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2026,8 +2054,8 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
